--- a/biology/Zoologie/Chilomycterus_schoepfii/Chilomycterus_schoepfii.xlsx
+++ b/biology/Zoologie/Chilomycterus_schoepfii/Chilomycterus_schoepfii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Porc-épic-rayé (Chilomycterus schoepfii) (Walbaum, 1792) est un poisson des mers chaudes de la famille des Diodontidaes.
 </t>
@@ -511,7 +523,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chilomycterus vit entre 1 et 20 mètres, il est commun dans le sud de la Floride, nord du golfe du Mexique au Brésil, mais assez rare dans le reste des Caraïbes. Il apprécie les récifs l'hiver tandis que l'été, il préfère nager dans des forêts d'algues, le long des côtes et des lagons.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Chilomycterus ressemble à un ballon qui irait en s'étirant vers la queue, qui est très petite. Il a de gros yeux jaunes sur les côtés. La couleur de son corps est marron foncé et claire avec de fines rayures qui courent sinueusement et horizontalement sur les flancs. Sa particularité est d'être herissé d'épines pour impressionner les prédateurs.
 </t>
@@ -573,7 +589,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce poisson a un comportement timide et solitaire.
 </t>
@@ -604,7 +622,9 @@
           <t>Liens taxonomiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Référence Catalogue of Life : Chilomycterus schoepfii (Walbaum, 1792) (consulté le 16 décembre 2020)
 (en + fr) Référence FishBase : espèce Chilomycterus schoepfii  (Walbaum, 1792) (+ traduction) (+ noms vernaculaires 1 &amp; 2)
